--- a/data/Hike_Database.xlsx
+++ b/data/Hike_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meagangardner/git/DSCI_532/individual/HikeRecommendations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD831ABA-3A3C-CA43-A69E-388BDDF529AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88D001-697E-9844-AF6D-6FE555A01A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,7 +834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>-123.15461718970499</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>-122.73695394737599</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>-123.23435247622599</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>-122.47801263497701</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>-123.121757001292</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.13699999999999998</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
@@ -2146,7 +2146,7 @@
         <v>-123.091022547375</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>-123.080801889702</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>-123.38923326086299</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>-123.200063173478</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>-123.030203745522</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>-123.01404972014601</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>-121.984344437221</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>-123.04260732005601</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>-123.186474680896</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>-123.197840873503</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -4159,8 +4159,7 @@
   <autoFilter ref="A1:M82" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters>
-        <filter val="10+"/>
-        <filter val="8 – 10"/>
+        <filter val="6 – 8"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Hike_Database.xlsx
+++ b/data/Hike_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meagangardner/git/DSCI_532/individual/HikeRecommendations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A88D001-697E-9844-AF6D-6FE555A01A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3808A-1197-2E4B-A730-C805DBE836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,11 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +874,7 @@
         <v>-122.49664644237799</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -916,7 +915,7 @@
         <v>-123.09026691854</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -957,7 +956,7 @@
         <v>-122.921962323258</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -998,7 +997,7 @@
         <v>-123.213735376217</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>-123.12118031665101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>-123.186296587813</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1139,7 @@
       <c r="F9" s="1">
         <v>0.20600000000000002</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
@@ -1162,7 +1161,7 @@
         <v>-123.19705058881</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>-122.859428397101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>-123.109710533203</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>-122.815294777994</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>-122.73695394737599</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>-123.09185851956801</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>-123.08135752698399</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>-123.210455238262</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>-122.875441643676</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>-122.970635193617</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>-122.989284510304</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>-121.803161689153</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>-123.22669031853501</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>-121.42867677327</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>-120.84732682046</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>-123.052554087934</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>-123.07848823389</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>-121.520745420502</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>-122.451283418811</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>-122.507553564592</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>-123.209186958117</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>-123.18335595766401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>-122.303407406063</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>-122.476188945469</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>-122.919180360871</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>-123.208658109281</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>-123.047548657166</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>-123.263912938126</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>-121.460482009195</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>105</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>-120.83654617980601</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>-123.01812054925701</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>-123.021654474361</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>-122.707932433887</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>-121.68106583565501</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>-123.10564138066</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>-123.05619448150399</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>-122.408868641398</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>-122.94367212422399</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>-122.941235820126</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>-122.83293796127499</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>-121.125492326821</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>-123.030203745522</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>-123.13392337587</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>-122.940255142872</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>-122.936829542959</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>-123.01404972014601</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>-122.86649987563401</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>-122.890473741855</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>-123.155967630164</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>-123.038339307096</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>-123.11572879601999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>-123.258339029247</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>-123.205810642836</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>-123.135257542058</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>-122.350349905055</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>-122.871673074363</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>-122.170377004519</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>-121.984344437221</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>-120.76837981715801</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>-123.237747301339</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>-122.816206821766</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>-123.055416801305</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -4156,13 +4155,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M82" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="6 – 8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Hike_Database.xlsx
+++ b/data/Hike_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meagangardner/git/DSCI_532/individual/HikeRecommendations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3808A-1197-2E4B-A730-C805DBE836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA76AA2-253C-AC47-BAF3-1ABD2F06EAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$88</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="131">
   <si>
     <t>☆☆☆</t>
   </si>
@@ -386,6 +386,36 @@
   </si>
   <si>
     <t>8+</t>
+  </si>
+  <si>
+    <t>Levette Lake</t>
+  </si>
+  <si>
+    <t>Burnaby Lake</t>
+  </si>
+  <si>
+    <t>Iona Jetty</t>
+  </si>
+  <si>
+    <t>Reifel Bird Sanctuary</t>
+  </si>
+  <si>
+    <t>Evans Valley</t>
+  </si>
+  <si>
+    <t>Sawblade Falls</t>
+  </si>
+  <si>
+    <t>Alder Flats</t>
+  </si>
+  <si>
+    <t>Mamquam Falls</t>
+  </si>
+  <si>
+    <t>Crooked Falls</t>
+  </si>
+  <si>
+    <t>Shannon Falls Pool</t>
   </si>
 </sst>
 </file>
@@ -429,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -437,6 +467,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3205,10 +3236,10 @@
         <v>24</v>
       </c>
       <c r="L59">
-        <v>49.732642408070902</v>
+        <v>49.953465829359601</v>
       </c>
       <c r="M59">
-        <v>-123.13392337587</v>
+        <v>-123.01741097432701</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -4154,8 +4185,385 @@
         <v>-123.260289134923</v>
       </c>
     </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>290</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83">
+        <v>49.835522379101199</v>
+      </c>
+      <c r="M83">
+        <v>-123.185259878515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84">
+        <v>49.241911081321597</v>
+      </c>
+      <c r="M84">
+        <v>-122.945845011488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="4">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85">
+        <v>49.217193991571598</v>
+      </c>
+      <c r="M85">
+        <v>-123.212001130191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86">
+        <v>49.097452095902902</v>
+      </c>
+      <c r="M86">
+        <v>-123.166504005063</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="E87" s="3">
+        <v>303</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7">
+        <v>49.340583900450603</v>
+      </c>
+      <c r="M87" s="7">
+        <v>122.74430560504899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>482</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="5">
+        <v>49.344774499021497</v>
+      </c>
+      <c r="M88" s="5">
+        <v>-122.474247487855</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>439</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="5">
+        <v>49.364248268800502</v>
+      </c>
+      <c r="M89" s="5">
+        <v>-122.471563874392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>63</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>8</v>
+      </c>
+      <c r="L90" s="5">
+        <v>49.721123369959003</v>
+      </c>
+      <c r="M90" s="5">
+        <v>-123.09252321666899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>472</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="5">
+        <v>49.896681883941497</v>
+      </c>
+      <c r="M91" s="5">
+        <v>-123.32481417248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E92" s="3">
+        <v>221</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L92" s="5">
+        <v>49.669806690511898</v>
+      </c>
+      <c r="M92" s="5">
+        <v>-123.156246661577</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Hike_Database.xlsx
+++ b/data/Hike_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meagangardner/git/DSCI_532/individual/HikeRecommendations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA76AA2-253C-AC47-BAF3-1ABD2F06EAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE35E481-9307-344D-A1F2-1E5BBF5889C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -467,7 +467,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
@@ -1754,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -2245,7 +2244,7 @@
       <c r="I35" t="s">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K35" t="s">
@@ -2861,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="J50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
@@ -2902,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
         <v>8</v>
@@ -4368,10 +4367,10 @@
       <c r="K87" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="5">
         <v>49.340583900450603</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M87" s="5">
         <v>122.74430560504899</v>
       </c>
     </row>
